--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R03A  2# 制袋机运行记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R03A  2# 制袋机运行记录.xlsx
@@ -1630,6 +1630,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1648,9 +1690,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1669,63 +1708,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1766,6 +1748,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2112,44 +2112,44 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" s="41" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
       <c r="M3" s="43"/>
       <c r="N3" s="44" t="s">
         <v>14</v>
@@ -2170,59 +2170,59 @@
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
       <c r="M4" s="47"/>
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
       <c r="P4" s="48"/>
     </row>
     <row r="5" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="67" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="66" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="69" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="71" t="s">
+      <c r="M5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="71" t="s">
+      <c r="O5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -2244,14 +2244,14 @@
       <c r="H6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="76"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="64"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
@@ -2434,24 +2434,24 @@
       <c r="P16" s="31"/>
     </row>
     <row r="17" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="73"/>
     </row>
     <row r="18" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
@@ -2472,22 +2472,22 @@
       <c r="P18" s="39"/>
     </row>
     <row r="19" spans="1:16" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="63"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="76"/>
     </row>
     <row r="20" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
@@ -2516,6 +2516,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A19:P19"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="B5:C5"/>
@@ -2531,8 +2533,6 @@
     <mergeCell ref="I3:L4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A19:P19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2543,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:N4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2585,47 +2585,47 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:17" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="51" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52" t="s">
+      <c r="J3" s="66"/>
+      <c r="K3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
       <c r="O3" s="50" t="s">
         <v>14</v>
       </c>
@@ -2633,77 +2633,77 @@
       <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54" t="s">
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="84" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86" t="s">
+      <c r="E5" s="80"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="69" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="71" t="s">
+      <c r="M5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="71" t="s">
+      <c r="O5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="77" t="s">
+      <c r="P5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="82" t="s">
+      <c r="Q5" s="96" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -2725,15 +2725,15 @@
       <c r="H6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="76"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="64"/>
     </row>
     <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
@@ -2752,7 +2752,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="79"/>
+      <c r="Q7" s="93"/>
     </row>
     <row r="8" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
@@ -2771,7 +2771,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="80"/>
+      <c r="Q8" s="94"/>
     </row>
     <row r="9" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
@@ -2790,7 +2790,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="80"/>
+      <c r="Q9" s="94"/>
     </row>
     <row r="10" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
@@ -2809,7 +2809,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="80"/>
+      <c r="Q10" s="94"/>
     </row>
     <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -2828,7 +2828,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="80"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
@@ -2847,7 +2847,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="80"/>
+      <c r="Q12" s="94"/>
     </row>
     <row r="13" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
@@ -2866,7 +2866,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="80"/>
+      <c r="Q13" s="94"/>
     </row>
     <row r="14" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
@@ -2885,110 +2885,139 @@
       <c r="N14" s="7"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="80"/>
+      <c r="Q14" s="94"/>
     </row>
     <row r="15" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="11"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="80"/>
-    </row>
-    <row r="16" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="81"/>
-    </row>
-    <row r="17" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="94"/>
+    </row>
+    <row r="16" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="94"/>
+    </row>
+    <row r="17" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="95"/>
+    </row>
+    <row r="18" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60"/>
-    </row>
-    <row r="18" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="39"/>
-    </row>
-    <row r="19" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="63"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="73"/>
+    </row>
+    <row r="19" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="39"/>
+    </row>
+    <row r="20" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="74"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="76"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q7:Q17"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="A18:Q18"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C5"/>
@@ -3002,16 +3031,6 @@
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q7:Q16"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="A17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
